--- a/Models/BBBY.xlsx
+++ b/Models/BBBY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED92BA-DA39-42E2-9EE1-9D72CB339BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD33B3-9326-400F-99F3-EE0B66BF46FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="5955" windowWidth="33990" windowHeight="13650" activeTab="1" xr2:uid="{F1620845-D3A1-42C3-B09D-9C0C2CC1B833}"/>
+    <workbookView xWindow="3690" yWindow="1350" windowWidth="19005" windowHeight="13650" xr2:uid="{F1620845-D3A1-42C3-B09D-9C0C2CC1B833}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABCF078-8F80-46BC-B5B9-A1A85F980B56}">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,7 @@
         <v>525</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" ref="J31:J34" si="0">I31/$I$30</f>
+        <f t="shared" ref="J31" si="0">I31/$I$30</f>
         <v>0.57692307692307687</v>
       </c>
       <c r="M31" s="7"/>
@@ -1343,11 +1343,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5852247D-41DC-4DAB-8C48-410CF359BD4C}">
   <dimension ref="A1:DE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,43 +1545,43 @@
         <v>5586.28</v>
       </c>
       <c r="X3" s="4">
-        <f>W3*(1+X53)</f>
+        <f t="shared" ref="X3:AG3" si="0">W3*(1+X53)</f>
         <v>3295.9052000000001</v>
       </c>
       <c r="Y3" s="4">
-        <f>X3*(1+Y53)</f>
+        <f t="shared" si="0"/>
         <v>3988.0452920000002</v>
       </c>
       <c r="Z3" s="4">
-        <f>Y3*(1+Z53)</f>
+        <f t="shared" si="0"/>
         <v>3828.5234803200001</v>
       </c>
       <c r="AA3" s="4">
-        <f>Z3*(1+AA53)</f>
+        <f t="shared" si="0"/>
         <v>4287.9462979584005</v>
       </c>
       <c r="AB3" s="4">
-        <f>AA3*(1+AB53)</f>
+        <f t="shared" si="0"/>
         <v>4416.584686897153</v>
       </c>
       <c r="AC3" s="4">
-        <f>AB3*(1+AC53)</f>
+        <f t="shared" si="0"/>
         <v>4504.9163806350962</v>
       </c>
       <c r="AD3" s="4">
-        <f>AC3*(1+AD53)</f>
+        <f t="shared" si="0"/>
         <v>4775.2113634732023</v>
       </c>
       <c r="AE3" s="4">
-        <f>AD3*(1+AE53)</f>
+        <f t="shared" si="0"/>
         <v>5013.9719316468627</v>
       </c>
       <c r="AF3" s="4">
-        <f>AE3*(1+AF53)</f>
+        <f t="shared" si="0"/>
         <v>5214.5308089127375</v>
       </c>
       <c r="AG3" s="4">
-        <f>AF3*(1+AG53)</f>
+        <f t="shared" si="0"/>
         <v>5423.1120412692471</v>
       </c>
     </row>
@@ -1640,39 +1640,39 @@
         <v>20</v>
       </c>
       <c r="C5" s="4">
-        <f>C3-C4</f>
+        <f t="shared" ref="C5:K5" si="1">C3-C4</f>
         <v>348.44000000000005</v>
       </c>
       <c r="D5" s="4">
-        <f>D3-D4</f>
+        <f t="shared" si="1"/>
         <v>987.56799999999976</v>
       </c>
       <c r="E5" s="4">
-        <f>E3-E4</f>
+        <f t="shared" si="1"/>
         <v>956.5</v>
       </c>
       <c r="F5" s="4">
-        <f>F3-F4</f>
+        <f t="shared" si="1"/>
         <v>825.99200000000019</v>
       </c>
       <c r="G5" s="4">
-        <f>G3-G4</f>
+        <f t="shared" si="1"/>
         <v>633.80999999999995</v>
       </c>
       <c r="H5" s="4">
-        <f>H3-H4</f>
+        <f t="shared" si="1"/>
         <v>601.10000000000014</v>
       </c>
       <c r="I5" s="4">
-        <f>I3-I4</f>
+        <f t="shared" si="1"/>
         <v>669</v>
       </c>
       <c r="J5" s="4">
-        <f>J3-J4</f>
+        <f t="shared" si="1"/>
         <v>580.09000000000015</v>
       </c>
       <c r="K5" s="4">
-        <f>K3-K4</f>
+        <f t="shared" si="1"/>
         <v>349.30000000000018</v>
       </c>
       <c r="P5" s="6"/>
@@ -1709,39 +1709,39 @@
         <v>659.18104000000005</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" ref="Y5:AG5" si="0">Y3*Y50</f>
+        <f t="shared" ref="Y5:AG5" si="2">Y3*Y50</f>
         <v>1395.8158522000001</v>
       </c>
       <c r="Z5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1416.5536877183999</v>
       </c>
       <c r="AA5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1629.4195932241921</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1678.3021810209182</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1711.8682246413366</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1814.5803181198169</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1905.3093340258079</v>
       </c>
       <c r="AF5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1981.5217073868403</v>
       </c>
       <c r="AG5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2060.782575682314</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>890.74</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" ref="F6:F9" si="1">T6-E6-D6-C6</f>
+        <f t="shared" ref="F6:F9" si="3">T6-E6-D6-C6</f>
         <v>759.06000000000017</v>
       </c>
       <c r="G6" s="11">
@@ -1772,7 +1772,7 @@
         <v>697.95</v>
       </c>
       <c r="J6" s="11">
-        <f t="shared" ref="J6:J9" si="2">U6-I6-H6-G6</f>
+        <f t="shared" ref="J6:J9" si="4">U6-I6-H6-G6</f>
         <v>682.68000000000006</v>
       </c>
       <c r="K6" s="11">
@@ -1807,39 +1807,39 @@
         <v>1487.4613154830001</v>
       </c>
       <c r="Y6" s="11">
-        <f t="shared" ref="Y6:AG6" si="3">Y3*Y51</f>
+        <f t="shared" ref="Y6:AG6" si="5">Y3*Y51</f>
         <v>1395.8158522000001</v>
       </c>
       <c r="Z6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1148.557044096</v>
       </c>
       <c r="AA6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1071.9865744896001</v>
       </c>
       <c r="AB6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1104.1461717242883</v>
       </c>
       <c r="AC6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1126.229095158774</v>
       </c>
       <c r="AD6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1193.8028408683006</v>
       </c>
       <c r="AE6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1253.4929829117157</v>
       </c>
       <c r="AF6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1303.6327022281844</v>
       </c>
       <c r="AG6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1355.7780103173118</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
         <v>57.997</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-45.177000000000007</v>
       </c>
       <c r="G7" s="11">
@@ -1870,7 +1870,7 @@
         <v>1.7589999999999999</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.140999999999998</v>
       </c>
       <c r="K7" s="11">
@@ -1907,7 +1907,7 @@
         <v>16.77</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58.330000000000005</v>
       </c>
       <c r="G8" s="11">
@@ -1920,7 +1920,7 @@
         <v>41.2</v>
       </c>
       <c r="J8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.8</v>
       </c>
       <c r="K8" s="11">
@@ -1961,7 +1961,7 @@
         <v>113.9</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76.687999999999988</v>
       </c>
       <c r="G9" s="11">
@@ -1974,7 +1974,7 @@
         <v>14.1</v>
       </c>
       <c r="J9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.2000000000000473E-2</v>
       </c>
       <c r="K9" s="11">
@@ -2014,39 +2014,39 @@
         <v>63</v>
       </c>
       <c r="C10" s="4">
-        <f>+C5-C6-C7-C8-C9</f>
+        <f t="shared" ref="C10:K10" si="6">+C5-C6-C7-C8-C9</f>
         <v>-460.85999999999996</v>
       </c>
       <c r="D10" s="4">
-        <f>+D5-D6-D7-D8-D9</f>
+        <f t="shared" si="6"/>
         <v>270.59599999999966</v>
       </c>
       <c r="E10" s="4">
-        <f>+E5-E6-E7-E8-E9</f>
+        <f t="shared" si="6"/>
         <v>-122.90700000000001</v>
       </c>
       <c r="F10" s="4">
-        <f>+F5-F6-F7-F8-F9</f>
+        <f t="shared" si="6"/>
         <v>-22.90899999999997</v>
       </c>
       <c r="G10" s="4">
-        <f>+G5-G6-G7-G8-G9</f>
+        <f t="shared" si="6"/>
         <v>-71.8900000000001</v>
       </c>
       <c r="H10" s="4">
-        <f>+H5-H6-H7-H8-H9</f>
+        <f t="shared" si="6"/>
         <v>-84.60199999999989</v>
       </c>
       <c r="I10" s="4">
-        <f>+I5-I6-I7-I8-I9</f>
+        <f t="shared" si="6"/>
         <v>-86.009000000000043</v>
       </c>
       <c r="J10" s="4">
-        <f>+J5-J6-J7-J8-J9</f>
+        <f t="shared" si="6"/>
         <v>-164.49899999999988</v>
       </c>
       <c r="K10" s="4">
-        <f>+K5-K6-K7-K8-K9</f>
+        <f t="shared" si="6"/>
         <v>-339.39999999999981</v>
       </c>
       <c r="P10" s="6"/>
@@ -2071,15 +2071,15 @@
         <v>-407.00000000000017</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" ref="V10:AG10" si="4">+V5-V6-V7-V8-V9</f>
+        <f t="shared" ref="V10:AG10" si="7">+V5-V6-V7-V8-V9</f>
         <v>-496.89450462633448</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-493.9896480000001</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-348.20811110300019</v>
       </c>
       <c r="Y10" s="4">
@@ -2087,35 +2087,35 @@
         <v>-334.99580452800001</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>267.99664362239992</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>557.433018734592</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>574.15600929662992</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>585.63912948256257</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>620.7774772515163</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>651.81635111409219</v>
       </c>
       <c r="AF10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>677.88900515865589</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>705.00456536500224</v>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         <v>17.8</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" ref="F11:F12" si="5">T11-E11-D11-C11</f>
+        <f t="shared" ref="F11:F12" si="8">T11-E11-D11-C11</f>
         <v>18.560000000000002</v>
       </c>
       <c r="G11" s="11">
@@ -2146,7 +2146,7 @@
         <v>15.77</v>
       </c>
       <c r="J11" s="11">
-        <f t="shared" ref="J11:J12" si="6">U11-I11-H11-G11</f>
+        <f t="shared" ref="J11:J12" si="9">U11-I11-H11-G11</f>
         <v>16.809000000000012</v>
       </c>
       <c r="K11" s="11">
@@ -2177,43 +2177,43 @@
         <v>98.435003095729527</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" ref="W11:AG11" si="7">W29*X56</f>
+        <f t="shared" ref="X11:AG11" si="10">W29*X56</f>
         <v>117.096379605245</v>
       </c>
       <c r="Y11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>131.75347106255472</v>
       </c>
       <c r="Z11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>146.45607324365719</v>
       </c>
       <c r="AA11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>146.90455229522564</v>
       </c>
       <c r="AB11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>137.52833983883605</v>
       </c>
       <c r="AC11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>127.37464044384591</v>
       </c>
       <c r="AD11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>116.55331347805233</v>
       </c>
       <c r="AE11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>104.41800990018386</v>
       </c>
       <c r="AF11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>91.029274250358213</v>
       </c>
       <c r="AG11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>76.472632756889553</v>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.0000000000001137E-2</v>
       </c>
       <c r="G12" s="11">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="K12" s="11">
@@ -2272,39 +2272,39 @@
         <v>66</v>
       </c>
       <c r="C13" s="4">
-        <f>+C10-C11-C12</f>
+        <f t="shared" ref="C13:K13" si="11">+C10-C11-C12</f>
         <v>-478.03</v>
       </c>
       <c r="D13" s="4">
-        <f>+D10-D11-D12</f>
+        <f t="shared" si="11"/>
         <v>324.22599999999966</v>
       </c>
       <c r="E13" s="4">
-        <f>+E10-E11-E12</f>
+        <f t="shared" si="11"/>
         <v>-140.70700000000002</v>
       </c>
       <c r="F13" s="4">
-        <f>+F10-F11-F12</f>
+        <f t="shared" si="11"/>
         <v>-41.438999999999972</v>
       </c>
       <c r="G13" s="4">
-        <f>+G10-G11-G12</f>
+        <f t="shared" si="11"/>
         <v>-88.155000000000101</v>
       </c>
       <c r="H13" s="4">
-        <f>+H10-H11-H12</f>
+        <f t="shared" si="11"/>
         <v>-100.83399999999989</v>
       </c>
       <c r="I13" s="4">
-        <f>+I10-I11-I12</f>
+        <f t="shared" si="11"/>
         <v>-101.77900000000004</v>
       </c>
       <c r="J13" s="4">
-        <f>+J10-J11-J12</f>
+        <f t="shared" si="11"/>
         <v>-181.33199999999988</v>
       </c>
       <c r="K13" s="4">
-        <f>+K10-K11-K12</f>
+        <f t="shared" si="11"/>
         <v>-355.89999999999981</v>
       </c>
       <c r="L13" s="4"/>
@@ -2333,51 +2333,51 @@
         <v>-472.10000000000014</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" ref="V13:AG13" si="8">+V10-V11-V12</f>
+        <f t="shared" ref="V13:AG13" si="12">+V10-V11-V12</f>
         <v>-577.14930462633447</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-592.42465109572959</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-465.30449070824523</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-466.7492755905547</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>121.54057037874273</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>410.52846643936635</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>436.6276694577939</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>458.26448903871665</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>504.22416377346394</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>547.39834121390834</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>586.85973090829771</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>628.5319326081127</v>
       </c>
       <c r="AH13" s="4"/>
@@ -2439,47 +2439,47 @@
         <v>-72.143663078291809</v>
       </c>
       <c r="W14" s="11">
-        <f t="shared" ref="W14:Y14" si="9">W13*W58</f>
+        <f t="shared" ref="W14:Y14" si="13">W13*W58</f>
         <v>-74.053081386966198</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-58.163061338530653</v>
       </c>
       <c r="Y14" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-58.343659448819338</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" ref="W14:AG14" si="10">Z3*Z57</f>
+        <f t="shared" ref="Z14:AG14" si="14">Z3*Z57</f>
         <v>133.99832181120001</v>
       </c>
       <c r="AA14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>150.07812042854403</v>
       </c>
       <c r="AB14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>154.58046404140038</v>
       </c>
       <c r="AC14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>157.67207332222839</v>
       </c>
       <c r="AD14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>167.13239772156209</v>
       </c>
       <c r="AE14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>175.48901760764022</v>
       </c>
       <c r="AF14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>182.50857831194583</v>
       </c>
       <c r="AG14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>189.80892144442367</v>
       </c>
     </row>
@@ -2488,39 +2488,39 @@
         <v>22</v>
       </c>
       <c r="C15" s="4">
-        <f>+C13-C14</f>
+        <f t="shared" ref="C15:K15" si="15">+C13-C14</f>
         <v>-302.22999999999996</v>
       </c>
       <c r="D15" s="4">
-        <f>+D13-D14</f>
+        <f t="shared" si="15"/>
         <v>217.91599999999966</v>
       </c>
       <c r="E15" s="4">
-        <f>+E13-E14</f>
+        <f t="shared" si="15"/>
         <v>-75.507000000000019</v>
       </c>
       <c r="F15" s="4">
-        <f>+F13-F14</f>
+        <f t="shared" si="15"/>
         <v>9.8600000000000065</v>
       </c>
       <c r="G15" s="4">
-        <f>+G13-G14</f>
+        <f t="shared" si="15"/>
         <v>-50.892000000000102</v>
       </c>
       <c r="H15" s="4">
-        <f>+H13-H14</f>
+        <f t="shared" si="15"/>
         <v>-73.702999999999889</v>
       </c>
       <c r="I15" s="4">
-        <f>+I13-I14</f>
+        <f t="shared" si="15"/>
         <v>-276.27900000000005</v>
       </c>
       <c r="J15" s="4">
-        <f>+J13-J14</f>
+        <f t="shared" si="15"/>
         <v>-158.19299999999987</v>
       </c>
       <c r="K15" s="4">
-        <f>+K13-K14</f>
+        <f t="shared" si="15"/>
         <v>-357.89999999999981</v>
       </c>
       <c r="L15" s="4"/>
@@ -2549,51 +2549,51 @@
         <v>-559.06700000000012</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" ref="V15:AG15" si="11">+V13-V14</f>
+        <f t="shared" ref="V15:AG15" si="16">+V13-V14</f>
         <v>-505.00564154804266</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-518.37156970876345</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-407.14142936971456</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-408.40561614173538</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-12.457751432457286</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>260.45034601082233</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>282.04720541639352</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>300.59241571648829</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>337.09176605190186</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>371.90932360626812</v>
       </c>
       <c r="AF15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>404.35115259635188</v>
       </c>
       <c r="AG15" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>438.72301116368902</v>
       </c>
       <c r="AH15" s="4">
@@ -2601,299 +2601,299 @@
         <v>429.94855094041526</v>
       </c>
       <c r="AI15" s="4">
-        <f t="shared" ref="AI15:CT15" si="12">AH15*(1+$AJ$59)</f>
+        <f t="shared" ref="AI15:CT15" si="17">AH15*(1+$AJ$59)</f>
         <v>421.34957992160696</v>
       </c>
       <c r="AJ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>412.92258832317481</v>
       </c>
       <c r="AK15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>404.6641365567113</v>
       </c>
       <c r="AL15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>396.57085382557705</v>
       </c>
       <c r="AM15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>388.63943674906551</v>
       </c>
       <c r="AN15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>380.86664801408421</v>
       </c>
       <c r="AO15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>373.24931505380249</v>
       </c>
       <c r="AP15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>365.78432875272642</v>
       </c>
       <c r="AQ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>358.46864217767188</v>
       </c>
       <c r="AR15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>351.29926933411843</v>
       </c>
       <c r="AS15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>344.27328394743608</v>
       </c>
       <c r="AT15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>337.38781826848737</v>
       </c>
       <c r="AU15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>330.64006190311761</v>
       </c>
       <c r="AV15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>324.02726066505528</v>
       </c>
       <c r="AW15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>317.54671545175415</v>
       </c>
       <c r="AX15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>311.19578114271906</v>
       </c>
       <c r="AY15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>304.97186551986465</v>
       </c>
       <c r="AZ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>298.87242820946733</v>
       </c>
       <c r="BA15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>292.894979645278</v>
       </c>
       <c r="BB15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>287.03708005237246</v>
       </c>
       <c r="BC15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>281.29633845132503</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>275.67041168229855</v>
       </c>
       <c r="BE15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>270.15700344865257</v>
       </c>
       <c r="BF15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>264.7538633796795</v>
       </c>
       <c r="BG15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>259.45878611208593</v>
       </c>
       <c r="BH15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>254.26961038984422</v>
       </c>
       <c r="BI15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>249.18421818204732</v>
       </c>
       <c r="BJ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>244.20053381840637</v>
       </c>
       <c r="BK15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>239.31652314203825</v>
       </c>
       <c r="BL15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>234.53019267919748</v>
       </c>
       <c r="BM15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>229.83958882561353</v>
       </c>
       <c r="BN15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>225.24279704910126</v>
       </c>
       <c r="BO15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>220.73794110811923</v>
       </c>
       <c r="BP15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>216.32318228595685</v>
       </c>
       <c r="BQ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>211.9967186402377</v>
       </c>
       <c r="BR15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>207.75678426743295</v>
       </c>
       <c r="BS15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>203.60164858208429</v>
       </c>
       <c r="BT15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>199.52961561044262</v>
       </c>
       <c r="BU15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>195.53902329823376</v>
       </c>
       <c r="BV15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>191.62824283226908</v>
       </c>
       <c r="BW15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>187.7956779756237</v>
       </c>
       <c r="BX15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>184.03976441611124</v>
       </c>
       <c r="BY15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>180.35896912778901</v>
       </c>
       <c r="BZ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>176.75178974523322</v>
       </c>
       <c r="CA15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>173.21675395032855</v>
       </c>
       <c r="CB15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>169.75241887132196</v>
       </c>
       <c r="CC15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>166.35737049389553</v>
       </c>
       <c r="CD15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>163.03022308401762</v>
       </c>
       <c r="CE15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>159.76961862233728</v>
       </c>
       <c r="CF15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>156.57422624989053</v>
       </c>
       <c r="CG15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>153.44274172489273</v>
       </c>
       <c r="CH15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>150.37388689039486</v>
       </c>
       <c r="CI15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>147.36640915258695</v>
       </c>
       <c r="CJ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>144.4190809695352</v>
       </c>
       <c r="CK15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>141.53069935014449</v>
       </c>
       <c r="CL15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>138.7000853631416</v>
       </c>
       <c r="CM15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>135.92608365587876</v>
       </c>
       <c r="CN15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>133.20756198276118</v>
       </c>
       <c r="CO15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>130.54341074310594</v>
       </c>
       <c r="CP15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>127.93254252824381</v>
       </c>
       <c r="CQ15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>125.37389167767894</v>
       </c>
       <c r="CR15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>122.86641384412536</v>
       </c>
       <c r="CS15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>120.40908556724285</v>
       </c>
       <c r="CT15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>118.000903855898</v>
       </c>
       <c r="CU15" s="4">
-        <f t="shared" ref="CU15:DE15" si="13">CT15*(1+$AJ$59)</f>
+        <f t="shared" ref="CU15:DD15" si="18">CT15*(1+$AJ$59)</f>
         <v>115.64088577878005</v>
       </c>
       <c r="CV15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>113.32806806320444</v>
       </c>
       <c r="CW15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>111.06150670194035</v>
       </c>
       <c r="CX15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>108.84027656790154</v>
       </c>
       <c r="CY15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>106.66347103654351</v>
       </c>
       <c r="CZ15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>104.53020161581264</v>
       </c>
       <c r="DA15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>102.43959758349639</v>
       </c>
       <c r="DB15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>100.39080563182647</v>
       </c>
       <c r="DC15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>98.382989519189934</v>
       </c>
       <c r="DD15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>96.415329728806128</v>
       </c>
       <c r="DE15" s="4"/>
@@ -2966,39 +2966,39 @@
         <v>23</v>
       </c>
       <c r="C17" s="17">
-        <f>+C15/C16</f>
+        <f t="shared" ref="C17:K17" si="19">+C15/C16</f>
         <v>-2.4432497978981402</v>
       </c>
       <c r="D17" s="17">
-        <f>+D15/D16</f>
+        <f t="shared" si="19"/>
         <v>1.7553203486217812</v>
       </c>
       <c r="E17" s="17">
-        <f>+E15/E16</f>
+        <f t="shared" si="19"/>
         <v>-0.61447753906250013</v>
       </c>
       <c r="F17" s="17">
-        <f>+F15/F16</f>
+        <f t="shared" si="19"/>
         <v>8.0240885416666727E-2</v>
       </c>
       <c r="G17" s="17">
-        <f>+G15/G16</f>
+        <f t="shared" si="19"/>
         <v>-0.47664181620649704</v>
       </c>
       <c r="H17" s="17">
-        <f>+H15/H16</f>
+        <f t="shared" si="19"/>
         <v>-0.72292571921805471</v>
       </c>
       <c r="I17" s="17">
-        <f>+I15/I16</f>
+        <f t="shared" si="19"/>
         <v>-2.7741640726980625</v>
       </c>
       <c r="J17" s="17">
-        <f>+J15/J16</f>
+        <f t="shared" si="19"/>
         <v>-1.5884426147203521</v>
       </c>
       <c r="K17" s="17">
-        <f>+K15/K16</f>
+        <f t="shared" si="19"/>
         <v>-4.4962311557788928</v>
       </c>
       <c r="P17" s="18"/>
@@ -3793,15 +3793,15 @@
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11">
-        <f t="shared" ref="R27:T27" si="14">R19+R20+R25+R26</f>
+        <f t="shared" ref="R27:T27" si="20">R19+R20+R25+R26</f>
         <v>5487</v>
       </c>
       <c r="S27" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6937.3040000000001</v>
       </c>
       <c r="T27" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5525.7000000000007</v>
       </c>
       <c r="U27" s="11">
@@ -3901,23 +3901,23 @@
         <v>25</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" ref="F29:H29" si="15">F19-F28</f>
+        <f t="shared" ref="F29:H29" si="21">F19-F28</f>
         <v>-1327.6000000000004</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-1912.6</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-2119.8000000000002</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" ref="I29:J29" si="16">I19-I28</f>
+        <f t="shared" ref="I29:J29" si="22">I19-I28</f>
         <v>-2532.1999999999998</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-2229.3000000000002</v>
       </c>
       <c r="K29" s="11">
@@ -3930,15 +3930,15 @@
         <v>-472.90000000000009</v>
       </c>
       <c r="S29" s="11">
-        <f t="shared" ref="S29:U29" si="17">S19-S28</f>
+        <f t="shared" ref="S29:U29" si="23">S19-S28</f>
         <v>-2363.9</v>
       </c>
       <c r="T29" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-1327.6000000000004</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-2229.3000000000002</v>
       </c>
       <c r="V29" s="11">
@@ -3946,47 +3946,47 @@
         <v>-2734.3056415480428</v>
       </c>
       <c r="W29" s="11">
-        <f t="shared" ref="W29:AG29" si="18">V29+W15</f>
+        <f t="shared" ref="W29:AG29" si="24">V29+W15</f>
         <v>-3252.677211256806</v>
       </c>
       <c r="X29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-3659.8186406265204</v>
       </c>
       <c r="Y29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-4068.2242567682556</v>
       </c>
       <c r="Z29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-4080.682008200713</v>
       </c>
       <c r="AA29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-3820.2316621898908</v>
       </c>
       <c r="AB29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-3538.1844567734975</v>
       </c>
       <c r="AC29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-3237.5920410570093</v>
       </c>
       <c r="AD29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-2900.5002750051076</v>
       </c>
       <c r="AE29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-2528.5909513988395</v>
       </c>
       <c r="AF29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-2124.2397988024877</v>
       </c>
       <c r="AG29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-1685.5167876387986</v>
       </c>
       <c r="AH29" s="11"/>
@@ -4644,39 +4644,39 @@
         <v>80</v>
       </c>
       <c r="C35" s="4">
-        <f>+C33-C34</f>
+        <f t="shared" ref="C35:K35" si="25">+C33-C34</f>
         <v>215.17</v>
       </c>
       <c r="D35" s="4">
-        <f>+D33-D34</f>
+        <f t="shared" si="25"/>
         <v>-252</v>
       </c>
       <c r="E35" s="4">
-        <f>+E33-E34</f>
+        <f t="shared" si="25"/>
         <v>-384.88</v>
       </c>
       <c r="F35" s="4">
-        <f>+F33-F34</f>
+        <f t="shared" si="25"/>
         <v>-299</v>
       </c>
       <c r="G35" s="4">
-        <f>+G33-G34</f>
+        <f t="shared" si="25"/>
         <v>-8.7000000000000171</v>
       </c>
       <c r="H35" s="4">
-        <f>+H33-H34</f>
+        <f t="shared" si="25"/>
         <v>-15</v>
       </c>
       <c r="I35" s="4">
-        <f>+I33-I34</f>
+        <f t="shared" si="25"/>
         <v>-16.100000000000023</v>
       </c>
       <c r="J35" s="4">
-        <f>+J33-J34</f>
+        <f t="shared" si="25"/>
         <v>-17</v>
       </c>
       <c r="K35" s="4">
-        <f>+K33-K34</f>
+        <f t="shared" si="25"/>
         <v>199.72</v>
       </c>
       <c r="L35" s="4"/>
@@ -4798,39 +4798,39 @@
         <v>82</v>
       </c>
       <c r="C36" s="4">
-        <f>C31+C32+C33</f>
+        <f t="shared" ref="C36:K36" si="26">C31+C32+C33</f>
         <v>132.71999999999994</v>
       </c>
       <c r="D36" s="4">
-        <f>D31+D32+D33</f>
+        <f t="shared" si="26"/>
         <v>445.75</v>
       </c>
       <c r="E36" s="4">
-        <f>E31+E32+E33</f>
+        <f t="shared" si="26"/>
         <v>462.41999999999996</v>
       </c>
       <c r="F36" s="4">
-        <f>F31+F32+F33</f>
+        <f t="shared" si="26"/>
         <v>373.88</v>
       </c>
       <c r="G36" s="4">
-        <f>G31+G32+G33</f>
+        <f t="shared" si="26"/>
         <v>-279.64</v>
       </c>
       <c r="H36" s="4">
-        <f>H31+H32+H33</f>
+        <f t="shared" si="26"/>
         <v>-383.5</v>
       </c>
       <c r="I36" s="4">
-        <f>I31+I32+I33</f>
+        <f t="shared" si="26"/>
         <v>-867.24</v>
       </c>
       <c r="J36" s="4">
-        <f>J31+J32+J33</f>
+        <f t="shared" si="26"/>
         <v>-937.15</v>
       </c>
       <c r="K36" s="4">
-        <f>K31+K32+K33</f>
+        <f t="shared" si="26"/>
         <v>-331.8</v>
       </c>
       <c r="L36" s="4"/>
@@ -4952,39 +4952,39 @@
         <v>81</v>
       </c>
       <c r="C37" s="4">
-        <f>+C31+C32+C35</f>
+        <f t="shared" ref="C37:K37" si="27">+C31+C32+C35</f>
         <v>135.21999999999994</v>
       </c>
       <c r="D37" s="4">
-        <f>+D31+D32+D35</f>
+        <f t="shared" si="27"/>
         <v>448.75</v>
       </c>
       <c r="E37" s="4">
-        <f>+E31+E32+E35</f>
+        <f t="shared" si="27"/>
         <v>559.41999999999996</v>
       </c>
       <c r="F37" s="4">
-        <f>+F31+F32+F35</f>
+        <f t="shared" si="27"/>
         <v>706.88</v>
       </c>
       <c r="G37" s="4">
-        <f>+G31+G32+G35</f>
+        <f t="shared" si="27"/>
         <v>-140.94000000000003</v>
       </c>
       <c r="H37" s="4">
-        <f>+H31+H32+H35</f>
+        <f t="shared" si="27"/>
         <v>-143.5</v>
       </c>
       <c r="I37" s="4">
-        <f>+I31+I32+I35</f>
+        <f t="shared" si="27"/>
         <v>-508.34000000000003</v>
       </c>
       <c r="J37" s="4">
-        <f>+J31+J32+J35</f>
+        <f t="shared" si="27"/>
         <v>-348.15</v>
       </c>
       <c r="K37" s="4">
-        <f>+K31+K32+K35</f>
+        <f t="shared" si="27"/>
         <v>-288.77999999999997</v>
       </c>
       <c r="L37" s="4"/>
@@ -5230,26 +5230,26 @@
         <v>-394.6</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" ref="D39:F39" si="19">D31-C31</f>
+        <f t="shared" ref="D39:F39" si="28">D31-C31</f>
         <v>543.45000000000005</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>43.550000000000011</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>75.599999999999994</v>
       </c>
       <c r="G39" s="4">
         <v>-28.74</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" ref="H39:I39" si="20">H31-G31</f>
+        <f t="shared" ref="H39:I39" si="29">H31-G31</f>
         <v>74.739999999999995</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-310.74</v>
       </c>
       <c r="J39" s="4">
@@ -5376,26 +5376,26 @@
         <v>314.64999999999998</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" ref="D40:F40" si="21">D32-C32</f>
+        <f t="shared" ref="D40:F40" si="30">D32-C32</f>
         <v>237.25</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-14.019999999999982</v>
       </c>
       <c r="G40" s="4">
         <v>-103.5</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" ref="H40:I40" si="22">H32-G32</f>
+        <f t="shared" ref="H40:I40" si="31">H32-G32</f>
         <v>-71</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>-53</v>
       </c>
       <c r="J40" s="4">
@@ -5522,26 +5522,26 @@
         <v>212.67</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" ref="D41:F41" si="23">D33-C33</f>
+        <f t="shared" ref="D41:F41" si="32">D33-C33</f>
         <v>-467.66999999999996</v>
       </c>
       <c r="E41" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>-226.88</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>-150.12</v>
       </c>
       <c r="G41" s="11">
         <v>-147.4</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" ref="H41:I41" si="24">H33-G33</f>
+        <f t="shared" ref="H41:I41" si="33">H33-G33</f>
         <v>-107.6</v>
       </c>
       <c r="I41" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>-120</v>
       </c>
       <c r="J41" s="11">
@@ -5663,26 +5663,26 @@
         <v>-2.5</v>
       </c>
       <c r="D42" s="11">
-        <f t="shared" ref="D42:F42" si="25">D34-C34</f>
+        <f t="shared" ref="D42:F42" si="34">D34-C34</f>
         <v>-0.5</v>
       </c>
       <c r="E42" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>-94</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>-236</v>
       </c>
       <c r="G42" s="11">
         <v>-138.69999999999999</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" ref="H42:I42" si="26">H34-G34</f>
+        <f t="shared" ref="H42:I42" si="35">H34-G34</f>
         <v>-101.30000000000001</v>
       </c>
       <c r="I42" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>-118.89999999999998</v>
       </c>
       <c r="J42" s="11">
@@ -5805,15 +5805,15 @@
         <v>215.17</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" ref="D43:F43" si="27">+D41-D42</f>
+        <f t="shared" ref="D43:F43" si="36">+D41-D42</f>
         <v>-467.16999999999996</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>-132.88</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>85.88</v>
       </c>
       <c r="G43" s="4">
@@ -5821,11 +5821,11 @@
         <v>-8.7000000000000171</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" ref="H43:I43" si="28">+H41-H42</f>
+        <f t="shared" ref="H43:I43" si="37">+H41-H42</f>
         <v>-6.2999999999999829</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>-1.1000000000000227</v>
       </c>
       <c r="J43" s="4">
@@ -5959,15 +5959,15 @@
         <v>132.71999999999994</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ref="D44:F44" si="29">D39+D40+D41</f>
+        <f t="shared" ref="D44:F44" si="38">D39+D40+D41</f>
         <v>313.03000000000009</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>16.670000000000016</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-88.539999999999992</v>
       </c>
       <c r="G44" s="4">
@@ -5975,11 +5975,11 @@
         <v>-279.64</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" ref="H44:I44" si="30">H39+H40+H41</f>
+        <f t="shared" ref="H44:I44" si="39">H39+H40+H41</f>
         <v>-103.86</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>-483.74</v>
       </c>
       <c r="J44" s="4">
@@ -6113,15 +6113,15 @@
         <v>135.21999999999994</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" ref="D45:F45" si="31">+D39+D40+D43</f>
+        <f t="shared" ref="D45:F45" si="40">+D39+D40+D43</f>
         <v>313.53000000000009</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>110.67000000000002</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>147.46</v>
       </c>
       <c r="G45" s="4">
@@ -6129,11 +6129,11 @@
         <v>-140.94000000000003</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45:I45" si="32">+H39+H40+H43</f>
+        <f t="shared" ref="H45:I45" si="41">+H39+H40+H43</f>
         <v>-2.5599999999999881</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>-364.84000000000003</v>
       </c>
       <c r="J45" s="4">
@@ -6451,56 +6451,56 @@
         <v>0.26650553753900758</v>
       </c>
       <c r="D50" s="19">
-        <f t="shared" ref="D50:K50" si="33">D5/D3</f>
+        <f t="shared" ref="D50:K50" si="42">D5/D3</f>
         <v>0.36740318337123051</v>
       </c>
       <c r="E50" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.36529941949282002</v>
       </c>
       <c r="F50" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.31536137862363661</v>
       </c>
       <c r="G50" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.32439694750257186</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.30286693203002979</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.35624900154427819</v>
       </c>
       <c r="J50" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.28275142694203032</v>
       </c>
       <c r="K50" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.23869072024053584</v>
       </c>
       <c r="P50" s="20"/>
       <c r="Q50" s="19">
-        <f t="shared" ref="Q50:U50" si="34">Q5/Q3</f>
+        <f t="shared" ref="Q50:U50" si="43">Q5/Q3</f>
         <v>0.35980177014081766</v>
       </c>
       <c r="R50" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0.34117549255964752</v>
       </c>
       <c r="S50" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0.31739644758303021</v>
       </c>
       <c r="T50" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0.33775587566338133</v>
       </c>
       <c r="U50" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0.31570920183019829</v>
       </c>
       <c r="V50" s="19">
@@ -6549,56 +6549,56 @@
         <v>0.55375390075261577</v>
       </c>
       <c r="D51" s="19">
-        <f t="shared" ref="D51:K51" si="35">D6/D3</f>
+        <f t="shared" ref="D51:K51" si="44">D6/D3</f>
         <v>0.31629840831438472</v>
       </c>
       <c r="E51" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.34018484570730217</v>
       </c>
       <c r="F51" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.28980693282508502</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.33713615960610299</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.32900186426160127</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.37166515788913146</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.33275654492369328</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0.43597102637693042</v>
       </c>
       <c r="P51" s="20"/>
       <c r="Q51" s="19">
-        <f t="shared" ref="Q51:U51" si="36">Q6/Q3</f>
+        <f t="shared" ref="Q51:U51" si="45">Q6/Q3</f>
         <v>0.29812216077024611</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.30602793249646687</v>
       </c>
       <c r="S51" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.33449536680228703</v>
       </c>
       <c r="T51" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.34918228094877074</v>
       </c>
       <c r="U51" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0.3421835282155567</v>
       </c>
       <c r="V51" s="19">
@@ -6648,19 +6648,19 @@
         <v>95</v>
       </c>
       <c r="G53" s="19">
-        <f t="shared" ref="G53:J53" si="37">G3/C3-1</f>
+        <f t="shared" ref="G53:J53" si="46">G3/C3-1</f>
         <v>0.49437832711252505</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>-0.26163555518518067</v>
       </c>
       <c r="I53" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>-0.28280629391995116</v>
       </c>
       <c r="J53" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>-0.21670881707030254</v>
       </c>
       <c r="K53" s="19">
@@ -6669,15 +6669,15 @@
       </c>
       <c r="P53" s="20"/>
       <c r="R53" s="19">
-        <f t="shared" ref="R53:T53" si="38">R3/Q3-1</f>
+        <f t="shared" ref="R53:T53" si="47">R3/Q3-1</f>
         <v>-2.5936692768011138E-2</v>
       </c>
       <c r="S53" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>-7.2358467037991536E-2</v>
       </c>
       <c r="T53" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>-0.17256645098847523</v>
       </c>
       <c r="U53" s="19">
@@ -6726,19 +6726,19 @@
         <v>27</v>
       </c>
       <c r="G54" s="19">
-        <f t="shared" ref="G54:J54" si="39">G15/C15-1</f>
+        <f t="shared" ref="G54:J54" si="48">G15/C15-1</f>
         <v>-0.83161168646395089</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>-1.3382174782943888</v>
       </c>
       <c r="I54" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>2.6589852596448007</v>
       </c>
       <c r="J54" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>-17.043914807302208</v>
       </c>
       <c r="K54" s="19">
@@ -6747,15 +6747,15 @@
       </c>
       <c r="P54" s="20"/>
       <c r="R54" s="19">
-        <f t="shared" ref="R54:T54" si="40">R15/Q15-1</f>
+        <f t="shared" ref="R54:T54" si="49">R15/Q15-1</f>
         <v>-1.3220589615998501</v>
       </c>
       <c r="S54" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>3.4717076014867656</v>
       </c>
       <c r="T54" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>-0.75558989052468895</v>
       </c>
       <c r="U54" s="19">
@@ -6806,19 +6806,19 @@
         <v>106</v>
       </c>
       <c r="G56" s="21">
-        <f t="shared" ref="G56:J56" si="41">(1+G11/F29)^4-1</f>
+        <f t="shared" ref="G56:J56" si="50">(1+G11/F29)^4-1</f>
         <v>-4.7342793591098276E-2</v>
       </c>
       <c r="H56" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-3.3291479465422213E-2</v>
       </c>
       <c r="I56" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-2.9427101799238908E-2</v>
       </c>
       <c r="J56" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-2.628918676741876E-2</v>
       </c>
       <c r="K56" s="21">
@@ -6827,11 +6827,11 @@
       </c>
       <c r="P56" s="22"/>
       <c r="S56" s="21">
-        <f t="shared" ref="R56:T56" si="42">S11/R29</f>
+        <f t="shared" ref="S56:T56" si="51">S11/R29</f>
         <v>-0.1370268555720025</v>
       </c>
       <c r="T56" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>-3.2530986928381064E-2</v>
       </c>
       <c r="U56" s="21">
@@ -6880,35 +6880,35 @@
         <v>107</v>
       </c>
       <c r="C57" s="21">
-        <f t="shared" ref="C57:J57" si="43">C14/C3</f>
+        <f t="shared" ref="C57:J57" si="52">C14/C3</f>
         <v>-0.13446123722694733</v>
       </c>
       <c r="D57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>3.9550322027643192E-2</v>
       </c>
       <c r="E57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>-2.4900702719217842E-2</v>
       </c>
       <c r="F57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>-1.958581119673547E-2</v>
       </c>
       <c r="G57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>-1.9071967079705807E-2</v>
       </c>
       <c r="H57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>-1.367007608202751E-2</v>
       </c>
       <c r="I57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>9.2922945843761651E-2</v>
       </c>
       <c r="J57" s="21">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>-1.1278569304783118E-2</v>
       </c>
       <c r="K57" s="21">
@@ -6917,23 +6917,23 @@
       </c>
       <c r="P57" s="22"/>
       <c r="Q57" s="21">
-        <f t="shared" ref="Q57:U57" si="44">Q14/Q3</f>
+        <f t="shared" ref="Q57:U57" si="53">Q14/Q3</f>
         <v>2.1863587409812705E-2</v>
       </c>
       <c r="R57" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>-1.6127691412419984E-3</v>
       </c>
       <c r="S57" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>-1.3535479361210188E-2</v>
       </c>
       <c r="T57" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>-2.0143940214448177E-2</v>
       </c>
       <c r="U57" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>1.1053253685815964E-2</v>
       </c>
       <c r="Z57" s="21">
@@ -6966,35 +6966,35 @@
         <v>108</v>
       </c>
       <c r="C58" s="21">
-        <f t="shared" ref="C58:J58" si="45">C14/C13</f>
+        <f t="shared" ref="C58:J58" si="54">C14/C13</f>
         <v>0.36775934564776275</v>
       </c>
       <c r="D58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0.32788857155194251</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0.46337424577313135</v>
       </c>
       <c r="F58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>1.2379401047322574</v>
       </c>
       <c r="G58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0.42269865577675636</v>
       </c>
       <c r="H58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0.26906598964634976</v>
       </c>
       <c r="I58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>-1.71449906169249</v>
       </c>
       <c r="J58" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>0.12760571768910076</v>
       </c>
       <c r="K58" s="21">
@@ -7003,15 +7003,15 @@
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="21">
-        <f t="shared" ref="Q58:T58" si="46">Q14/Q13</f>
+        <f t="shared" ref="Q58:S58" si="55">Q14/Q13</f>
         <v>0.38790874087696142</v>
       </c>
       <c r="R58" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.12387459293787112</v>
       </c>
       <c r="S58" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.19753727439183907</v>
       </c>
       <c r="T58" s="21">
